--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
         <v>7.97</v>
       </c>
       <c r="C3" t="n">
-        <v>12.455</v>
+        <v>12.451</v>
       </c>
       <c r="D3" t="n">
         <v>0.006</v>
@@ -536,10 +536,10 @@
         <v>0.006</v>
       </c>
       <c r="H3" t="n">
-        <v>11.482</v>
+        <v>11.495</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.31</v>
+        <v>5.754</v>
       </c>
       <c r="C2" t="n">
-        <v>10.438</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.986</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.005</v>
       </c>
-      <c r="E2" t="n">
-        <v>3.983</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.615</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.006</v>
-      </c>
       <c r="H2" t="n">
-        <v>9.781000000000001</v>
+        <v>9.180999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.018</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.97</v>
+        <v>14.179</v>
       </c>
       <c r="C3" t="n">
-        <v>12.451</v>
+        <v>22.57</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
       <c r="E3" t="n">
-        <v>6.888</v>
+        <v>6.912</v>
       </c>
       <c r="F3" t="n">
-        <v>10.821</v>
+        <v>10.507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="H3" t="n">
-        <v>11.495</v>
+        <v>16.691</v>
       </c>
       <c r="I3" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.754</v>
+        <v>2.249</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>3.864</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E2" t="n">
-        <v>3.986</v>
+        <v>2.057</v>
       </c>
       <c r="F2" t="n">
-        <v>7.548</v>
+        <v>4.076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="H2" t="n">
-        <v>9.180999999999999</v>
+        <v>4.827</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="3">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.179</v>
+        <v>6.327</v>
       </c>
       <c r="C3" t="n">
-        <v>22.57</v>
+        <v>8.715999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="E3" t="n">
-        <v>6.912</v>
+        <v>6.434</v>
       </c>
       <c r="F3" t="n">
-        <v>10.507</v>
+        <v>8.757999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>0.005</v>
       </c>
       <c r="H3" t="n">
-        <v>16.691</v>
+        <v>9.753</v>
       </c>
       <c r="I3" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -486,29 +486,45 @@
           <t>unconstrained</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.827</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.008</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2.2489</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3.8636</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00277</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.0566</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.0759</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4.8271</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.00822</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -517,29 +533,45 @@
           <t>constrained</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>6.327</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.715999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.434</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.757999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9.753</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.012</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6.3271</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8.7158</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00389</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6.4337</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.7582</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.00503</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9.7526</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.01154</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>RMSE theta (degree)</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Max Amplitude (degree)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
           <t>0.00822</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3.08874</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -571,6 +581,11 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>0.01154</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.27624</t>
         </is>
       </c>
     </row>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -493,47 +493,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.2489</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.8636</t>
+          <t>3.864</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00277</t>
+          <t>0.00278</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.0566</t>
+          <t>2.057</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.0759</t>
+          <t>4.075</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.00379</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.8271</t>
+          <t>4.823</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00822</t>
+          <t>0.00836</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08874</t>
+          <t>3.08883</t>
         </is>
       </c>
     </row>
@@ -545,47 +545,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.3271</t>
+          <t>6.417</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.7158</t>
+          <t>8.817</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00389</t>
+          <t>0.00393</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.4337</t>
+          <t>6.434</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.7582</t>
+          <t>8.754</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00503</t>
+          <t>0.00508</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.7526</t>
+          <t>9.859</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.01154</t>
+          <t>0.01166</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.27624</t>
+          <t>1.26158</t>
         </is>
       </c>
     </row>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -493,47 +493,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.2489</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.864</t>
+          <t>3.8636</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00278</t>
+          <t>0.00277</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.057</t>
+          <t>2.0566</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.075</t>
+          <t>4.0759</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.00379</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.823</t>
+          <t>4.8271</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00836</t>
+          <t>0.00822</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08883</t>
+          <t>3.08874</t>
         </is>
       </c>
     </row>
@@ -545,47 +545,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.417</t>
+          <t>6.3271</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.817</t>
+          <t>8.7158</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00393</t>
+          <t>0.00389</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.434</t>
+          <t>6.4337</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.754</t>
+          <t>8.7582</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00508</t>
+          <t>0.00503</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.859</t>
+          <t>9.7526</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.01166</t>
+          <t>0.01154</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.26158</t>
+          <t>1.27624</t>
         </is>
       </c>
     </row>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.2489</t>
+          <t>2.2495</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.8636</t>
+          <t>3.864</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,32 +508,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.0566</t>
+          <t>2.057</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.0759</t>
+          <t>4.0755</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.00381</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.8271</t>
+          <t>4.827</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00822</t>
+          <t>0.00825</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08874</t>
+          <t>3.08878</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.3271</t>
+          <t>6.3365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.7158</t>
+          <t>8.727</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00389</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.4337</t>
+          <t>6.434</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.7582</t>
+          <t>8.758</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.7526</t>
+          <t>9.7655</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.01154</t>
+          <t>0.01156</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.27624</t>
+          <t>1.27449</t>
         </is>
       </c>
     </row>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.2495</t>
+          <t>2.2489</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.864</t>
+          <t>3.8636</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,32 +508,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.057</t>
+          <t>2.0566</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.0755</t>
+          <t>4.0759</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.00381</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.827</t>
+          <t>4.8271</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00825</t>
+          <t>0.00822</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08878</t>
+          <t>3.08874</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.3365</t>
+          <t>6.3271</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.727</t>
+          <t>8.7158</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.00389</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.434</t>
+          <t>6.4337</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.758</t>
+          <t>8.7582</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.7655</t>
+          <t>9.7526</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.01156</t>
+          <t>0.01154</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.27449</t>
+          <t>1.27624</t>
         </is>
       </c>
     </row>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -590,6 +590,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -436,42 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Scenario</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Rise time x (s)</t>
+          <t>Rise time x (sec.)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Settling time x (s)</t>
+          <t>Settling time x (sec.)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE x (m)</t>
+          <t>RMSE x (meter)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Rise time l (s)</t>
+          <t>Rise time l (sec.)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Settling time l (s)</t>
+          <t>Settling time l (sec.)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RMSE l (m)</t>
+          <t>RMSE l (meter)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Settling time theta (s)</t>
+          <t>Settling time theta (sec.)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.8636</t>
+          <t>3.8637</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08874</t>
+          <t>3.08883</t>
         </is>
       </c>
     </row>

--- a/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor ICCAS/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,27 +493,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.2489</t>
+          <t>2.286</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.8637</t>
+          <t>3.9186</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00277</t>
+          <t>0.00278</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.0566</t>
+          <t>2.1126</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.0759</t>
+          <t>4.1451</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -523,17 +523,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.8271</t>
+          <t>4.8819</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00822</t>
+          <t>0.00826</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08883</t>
+          <t>2.89503</t>
         </is>
       </c>
     </row>
@@ -545,12 +545,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.3271</t>
+          <t>6.327</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.7158</t>
+          <t>8.7156</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -560,17 +560,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.4337</t>
+          <t>6.4356</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.7582</t>
+          <t>8.7618</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00503</t>
+          <t>0.00504</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.27624</t>
+          <t>1.27612</t>
         </is>
       </c>
     </row>
